--- a/addons/custom/forlife_stock/static/src/xlsx/template_ycnk.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/template_ycnk.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5F1598-8DB3-4297-BD3F-0CA3954FEF85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3FBCF9-C415-4F45-97E4-258CE574089C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3432D23C-C5BB-448A-8A00-3FD4AFE0BF35}"/>
   </bookViews>
@@ -25,31 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
-  <si>
-    <t>Ngày kế hoạch</t>
-  </si>
-  <si>
-    <t>Loại phiếu</t>
-  </si>
-  <si>
-    <t>Line / Sản phẩm</t>
-  </si>
-  <si>
-    <t>Line / Ngày dự kiến</t>
-  </si>
-  <si>
-    <t>Line / Số lượng</t>
-  </si>
-  <si>
-    <t>Line / Đơn vị</t>
-  </si>
-  <si>
-    <t>Line / Lý do nhập</t>
-  </si>
-  <si>
-    <t>Line / Đến kho</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Line / Mã vụ việc</t>
   </si>
@@ -82,6 +58,141 @@
   </si>
   <si>
     <t>1551_TP002</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ngày kế hoạch </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Loại phiếu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Line / Sản phẩm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Line / Ngày dự kiến </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Line / Số lượng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Line / Đơn vị </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Line / Loại lý do</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Line / Lý do nhập </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Line / Đến kho</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -91,7 +202,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +228,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -530,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E024EC5C-06AB-479A-BE4E-6B23C2BEC4B7}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,172 +659,180 @@
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="46.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>44655</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6">
         <v>10</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="9">
+        <v>7</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="9">
         <v>1075</v>
       </c>
-      <c r="I2" s="8">
+      <c r="J2" s="8">
         <v>1405000161</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="8">
+      <c r="K2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="8">
         <v>1511020000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="11" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6">
         <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="9">
+        <v>7</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="9">
         <v>1076</v>
       </c>
-      <c r="I3" s="8">
+      <c r="J3" s="8">
         <v>1405000161</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="K3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="8">
         <v>1511020000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>44655</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6">
         <v>20</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="9">
+        <v>7</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="9">
         <v>1077</v>
       </c>
-      <c r="I4" s="8">
+      <c r="J4" s="8">
         <v>1405000161</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="8">
+      <c r="K4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="8">
         <v>1511020000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6">
         <v>25</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="9">
+        <v>7</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="9">
         <v>1078</v>
       </c>
-      <c r="I5" s="8">
+      <c r="J5" s="8">
         <v>1405000161</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="8">
+      <c r="K5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="8">
         <v>1511020000</v>
       </c>
     </row>
@@ -718,5 +844,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/addons/custom/forlife_stock/static/src/xlsx/template_ycnk.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/template_ycnk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3FBCF9-C415-4F45-97E4-258CE574089C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282803EB-379E-412E-87F5-C29CC6596C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3432D23C-C5BB-448A-8A00-3FD4AFE0BF35}"/>
   </bookViews>
@@ -27,15 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
-    <t>Line / Mã vụ việc</t>
-  </si>
-  <si>
-    <t>Line / Lệnh sản xuất</t>
-  </si>
-  <si>
-    <t>Line / Trung tâm chi phí</t>
-  </si>
-  <si>
     <t>Nhập khác</t>
   </si>
   <si>
@@ -91,7 +82,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / Sản phẩm </t>
+      <t xml:space="preserve">Chi tiết / Sản phẩm </t>
     </r>
     <r>
       <rPr>
@@ -106,7 +97,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / Ngày dự kiến </t>
+      <t xml:space="preserve">Chi tiết / Ngày dự kiến </t>
     </r>
     <r>
       <rPr>
@@ -121,7 +112,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / Số lượng </t>
+      <t xml:space="preserve">Chi tiết / Số lượng </t>
     </r>
     <r>
       <rPr>
@@ -136,7 +127,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / Đơn vị </t>
+      <t xml:space="preserve">Chi tiết / Đơn vị </t>
     </r>
     <r>
       <rPr>
@@ -151,7 +142,7 @@
   </si>
   <si>
     <r>
-      <t>Line / Loại lý do</t>
+      <t>Chi tiết / Loại lý do</t>
     </r>
     <r>
       <rPr>
@@ -166,7 +157,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / Lý do nhập </t>
+      <t xml:space="preserve">Chi tiết / Lý do nhập </t>
     </r>
     <r>
       <rPr>
@@ -181,7 +172,7 @@
   </si>
   <si>
     <r>
-      <t>Line / Đến kho</t>
+      <t>Chi tiết / Đến kho</t>
     </r>
     <r>
       <rPr>
@@ -193,6 +184,15 @@
       </rPr>
       <t xml:space="preserve"> (*)</t>
     </r>
+  </si>
+  <si>
+    <t>Chi tiết / Mã vụ việc</t>
+  </si>
+  <si>
+    <t>Chi tiết / Lệnh sản xuất</t>
+  </si>
+  <si>
+    <t>Chi tiết / Trung tâm chi phí</t>
   </si>
 </sst>
 </file>
@@ -651,7 +651,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -659,53 +659,53 @@
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="46.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -713,21 +713,21 @@
         <v>44655</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6">
         <v>10</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" s="9">
         <v>1075</v>
@@ -736,7 +736,7 @@
         <v>1405000161</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L2" s="8">
         <v>1511020000</v>
@@ -746,18 +746,18 @@
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6">
         <v>15</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" s="9">
         <v>1076</v>
@@ -766,7 +766,7 @@
         <v>1405000161</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L3" s="8">
         <v>1511020000</v>
@@ -777,21 +777,21 @@
         <v>44655</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6">
         <v>20</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" s="9">
         <v>1077</v>
@@ -800,7 +800,7 @@
         <v>1405000161</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L4" s="8">
         <v>1511020000</v>
@@ -810,18 +810,18 @@
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6">
         <v>25</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" s="9">
         <v>1078</v>
@@ -830,7 +830,7 @@
         <v>1405000161</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L5" s="8">
         <v>1511020000</v>

--- a/addons/custom/forlife_stock/static/src/xlsx/template_ycnk.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/template_ycnk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282803EB-379E-412E-87F5-C29CC6596C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA8DA8-7EFE-498E-B265-8A5FC938A029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3432D23C-C5BB-448A-8A00-3FD4AFE0BF35}"/>
   </bookViews>
@@ -199,8 +199,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -305,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,7 +320,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -334,6 +334,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,19 +662,19 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="46.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
@@ -671,7 +682,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -680,7 +691,7 @@
       <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -709,130 +720,130 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="12">
         <v>44655</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6">
+      <c r="D2" s="13"/>
+      <c r="E2" s="5">
         <v>10</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>1075</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>1405000161</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>1511020000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6">
+      <c r="D3" s="13"/>
+      <c r="E3" s="5">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>1076</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>1405000161</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>1511020000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="12">
         <v>44655</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6">
+      <c r="D4" s="13"/>
+      <c r="E4" s="5">
         <v>20</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>1077</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>1405000161</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>1511020000</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6">
+      <c r="D5" s="13"/>
+      <c r="E5" s="5">
         <v>25</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>1078</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>1405000161</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>1511020000</v>
       </c>
     </row>

--- a/addons/custom/forlife_stock/static/src/xlsx/template_ycnk.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/template_ycnk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3FBCF9-C415-4F45-97E4-258CE574089C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA8DA8-7EFE-498E-B265-8A5FC938A029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3432D23C-C5BB-448A-8A00-3FD4AFE0BF35}"/>
   </bookViews>
@@ -27,15 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
-    <t>Line / Mã vụ việc</t>
-  </si>
-  <si>
-    <t>Line / Lệnh sản xuất</t>
-  </si>
-  <si>
-    <t>Line / Trung tâm chi phí</t>
-  </si>
-  <si>
     <t>Nhập khác</t>
   </si>
   <si>
@@ -91,7 +82,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / Sản phẩm </t>
+      <t xml:space="preserve">Chi tiết / Sản phẩm </t>
     </r>
     <r>
       <rPr>
@@ -106,7 +97,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / Ngày dự kiến </t>
+      <t xml:space="preserve">Chi tiết / Ngày dự kiến </t>
     </r>
     <r>
       <rPr>
@@ -121,7 +112,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / Số lượng </t>
+      <t xml:space="preserve">Chi tiết / Số lượng </t>
     </r>
     <r>
       <rPr>
@@ -136,7 +127,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / Đơn vị </t>
+      <t xml:space="preserve">Chi tiết / Đơn vị </t>
     </r>
     <r>
       <rPr>
@@ -151,7 +142,7 @@
   </si>
   <si>
     <r>
-      <t>Line / Loại lý do</t>
+      <t>Chi tiết / Loại lý do</t>
     </r>
     <r>
       <rPr>
@@ -166,7 +157,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Line / Lý do nhập </t>
+      <t xml:space="preserve">Chi tiết / Lý do nhập </t>
     </r>
     <r>
       <rPr>
@@ -181,7 +172,7 @@
   </si>
   <si>
     <r>
-      <t>Line / Đến kho</t>
+      <t>Chi tiết / Đến kho</t>
     </r>
     <r>
       <rPr>
@@ -194,13 +185,23 @@
       <t xml:space="preserve"> (*)</t>
     </r>
   </si>
+  <si>
+    <t>Chi tiết / Mã vụ việc</t>
+  </si>
+  <si>
+    <t>Chi tiết / Lệnh sản xuất</t>
+  </si>
+  <si>
+    <t>Chi tiết / Trung tâm chi phí</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -305,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,7 +320,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -334,6 +334,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,188 +662,188 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="46.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="12">
         <v>44655</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="5">
         <v>10</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="9">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
         <v>1075</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>1405000161</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="8">
+      <c r="K2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="7">
         <v>1511020000</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6">
+      <c r="A3" s="13"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="5">
         <v>15</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="9">
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="8">
         <v>1076</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>1405000161</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="8">
+      <c r="K3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="7">
         <v>1511020000</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="12">
         <v>44655</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="5">
+        <v>20</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1077</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1405000161</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6">
-        <v>20</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1077</v>
-      </c>
-      <c r="J4" s="8">
-        <v>1405000161</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>1511020000</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6">
+      <c r="A5" s="13"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="5">
         <v>25</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="9">
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8">
         <v>1078</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>1405000161</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="8">
+      <c r="K5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="7">
         <v>1511020000</v>
       </c>
     </row>

--- a/addons/custom/forlife_stock/static/src/xlsx/template_ycnk.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/template_ycnk.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FORLIFE\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BA8DA8-7EFE-498E-B265-8A5FC938A029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34DD19CF-FB00-4A69-95EA-F68878B1CFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3432D23C-C5BB-448A-8A00-3FD4AFE0BF35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Nhập khác</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>T2</t>
-  </si>
-  <si>
-    <t>Đơn vị</t>
   </si>
   <si>
     <t>1521_NPL</t>
@@ -127,7 +124,22 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Chi tiết / Đơn vị </t>
+      <t>Chi tiết / Loại lý do</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chi tiết / Lý do nhập </t>
     </r>
     <r>
       <rPr>
@@ -142,7 +154,7 @@
   </si>
   <si>
     <r>
-      <t>Chi tiết / Loại lý do</t>
+      <t>Chi tiết / Đến kho</t>
     </r>
     <r>
       <rPr>
@@ -156,36 +168,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Chi tiết / Lý do nhập </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(*)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Chi tiết / Đến kho</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (*)</t>
-    </r>
-  </si>
-  <si>
     <t>Chi tiết / Mã vụ việc</t>
   </si>
   <si>
@@ -193,6 +175,9 @@
   </si>
   <si>
     <t>Chi tiết / Trung tâm chi phí</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -658,68 +643,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E024EC5C-06AB-479A-BE4E-6B23C2BEC4B7}">
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="46.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>44655</v>
       </c>
@@ -727,63 +708,65 @@
         <v>0</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="13"/>
+        <v>4</v>
+      </c>
+      <c r="D2" s="13">
+        <v>45163</v>
+      </c>
       <c r="E2" s="5">
         <v>10</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="8">
+      <c r="H2" s="8">
         <v>1075</v>
       </c>
-      <c r="J2" s="7">
+      <c r="I2" s="7">
         <v>1405000161</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="7">
+      <c r="K2" s="7">
         <v>1511020000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="6"/>
       <c r="C3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="13"/>
+        <v>5</v>
+      </c>
+      <c r="D3" s="13">
+        <v>45164</v>
+      </c>
       <c r="E3" s="5">
         <v>15</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="8">
+      <c r="H3" s="8">
         <v>1076</v>
       </c>
-      <c r="J3" s="7">
+      <c r="I3" s="7">
         <v>1405000161</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="7">
+      <c r="K3" s="7">
         <v>1511020000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>44655</v>
       </c>
@@ -791,66 +774,68 @@
         <v>0</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="13"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="13">
+        <v>45165</v>
+      </c>
       <c r="E4" s="5">
         <v>20</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="8">
+      <c r="H4" s="8">
         <v>1077</v>
       </c>
-      <c r="J4" s="7">
+      <c r="I4" s="7">
         <v>1405000161</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="7">
+      <c r="K4" s="7">
         <v>1511020000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="6"/>
       <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="13"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="13">
+        <v>45166</v>
+      </c>
       <c r="E5" s="5">
         <v>25</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="8">
+      <c r="H5" s="8">
         <v>1078</v>
       </c>
-      <c r="J5" s="7">
+      <c r="I5" s="7">
         <v>1405000161</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="7">
+      <c r="K5" s="7">
         <v>1511020000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{45161D29-6ECE-4EB9-AD82-96C5E3251BD5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Nhập khác, Xuất khác"</formula1>
     </dataValidation>
   </dataValidations>

--- a/addons/custom/forlife_stock/static/src/xlsx/template_ycnk.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/template_ycnk.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FORLIFE\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FORLIFE\TAI LIEU DU AN\ERP\Template import_Odoo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34DD19CF-FB00-4A69-95EA-F68878B1CFA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="import" sheetId="1" r:id="rId1"/>
+    <sheet name="TT chi phí" sheetId="3" r:id="rId2"/>
+    <sheet name="Lý do" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Lý do'!$A$1:$H$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TT chi phí'!$A$1:$H$263</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,8 +29,357 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>admin</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Lựa chọn mã loại lý do theo danh sách
+Trường hợp là yêu cầu nhập thành phẩm sản xuất thì bắt buộc điền thông tin mã loại lý do để hệ thống phân biệt phiếu nhập thành phẩm với phiếu nhập khác</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Lựa chọn mã loại lý do theo danh sách
+Trường hợp là yêu cầu nhập thành phẩm sản xuất thì bắt buộc điền thông tin mã loại lý do để hệ thống phân biệt phiếu nhập thành phẩm với phiếu nhập khác</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Điền mã kho nhập</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- Bắt buộc điền thông tin đối với phiếu yêu cầu nhập thành phẩm sản xuất để hệ thống sinh phiếu xuất tiêu hao NPL tự động khi phiếu nhập kho thành phẩm được xác nhân. 
+- Chọn mã kho nhà gia công hoặc kho xưởng </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Điền thông tin mã vụ việc đã khai báo trên hệ thống (nếu có)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nếu nhập khác liên quan đến LSX thì bắt buộc điền thông tin mã LSX đã khai báo trên hệ thống</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Bộ phận chịu chi phí - Điền mã trung tâm chi phí theo danh sách đã khai báo trên hệ thống</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Điền thông tin mã vạch của sản phẩm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn từ cột mã loại lý do</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Chọn từ cột mã lý do</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mã kho nhập</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Điền thông tin mã vụ việc đã khai báo trên hệ thống (trường hợp có thông tin)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Nếu nhập khác liên quan đến lệnh sản xuất thì bắt buộc phải điền LSX</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mã bộ phận - lựa chọn từ danh mục trung tâm chi phí có trên hệ thống</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="619">
   <si>
     <t>Nhập khác</t>
   </si>
@@ -179,16 +533,1816 @@
   <si>
     <t>abc</t>
   </si>
+  <si>
+    <t>Loại nhập xuất</t>
+  </si>
+  <si>
+    <t>Mã loại lý do</t>
+  </si>
+  <si>
+    <t>Tên loại lý do</t>
+  </si>
+  <si>
+    <t>Mã lý do</t>
+  </si>
+  <si>
+    <t>Tên lý do</t>
+  </si>
+  <si>
+    <t>Mã tài khoản hạch toán</t>
+  </si>
+  <si>
+    <t>Mã lý do xuất</t>
+  </si>
+  <si>
+    <t>Bắt buộc điền lệnh sản xuất</t>
+  </si>
+  <si>
+    <t>Nhập giá</t>
+  </si>
+  <si>
+    <t>SX</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>6321000001</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>1381000004</t>
+  </si>
+  <si>
+    <t>1381000002</t>
+  </si>
+  <si>
+    <t>1529000002</t>
+  </si>
+  <si>
+    <t>1569000001</t>
+  </si>
+  <si>
+    <t>X1001</t>
+  </si>
+  <si>
+    <t>X1002</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập kho thành phẩm sản xuất </t>
+  </si>
+  <si>
+    <t>N0101</t>
+  </si>
+  <si>
+    <t>N0102</t>
+  </si>
+  <si>
+    <t>Nhập nguyên phụ liệu gia công</t>
+  </si>
+  <si>
+    <t>N0103</t>
+  </si>
+  <si>
+    <t>Nhập kho thành phẩm thừa</t>
+  </si>
+  <si>
+    <t>N02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập điều chỉnh tồn kho </t>
+  </si>
+  <si>
+    <t>N0201</t>
+  </si>
+  <si>
+    <t>Nhập cân đối tồn kho - tự kiểm kê</t>
+  </si>
+  <si>
+    <t>N0202</t>
+  </si>
+  <si>
+    <t>Nhập cân đối tồn kho - kiểm kê định kì</t>
+  </si>
+  <si>
+    <t>N03</t>
+  </si>
+  <si>
+    <t>Nhập tách/gộp mã tồn kho</t>
+  </si>
+  <si>
+    <t>N0301</t>
+  </si>
+  <si>
+    <t>Nhập tách/gộp mã nguyên phụ liệu</t>
+  </si>
+  <si>
+    <t>N0302</t>
+  </si>
+  <si>
+    <t>Nhập tách/gộp mã hàng hóa</t>
+  </si>
+  <si>
+    <t>N04</t>
+  </si>
+  <si>
+    <t>Nhập biếu/tặng</t>
+  </si>
+  <si>
+    <t>N0401</t>
+  </si>
+  <si>
+    <t>Nhập kho đối với hàng biếu/tặng</t>
+  </si>
+  <si>
+    <t>7118000001</t>
+  </si>
+  <si>
+    <t>N05</t>
+  </si>
+  <si>
+    <t>Nhập trả lại hàng ký gửi</t>
+  </si>
+  <si>
+    <t>N0501</t>
+  </si>
+  <si>
+    <t>N06</t>
+  </si>
+  <si>
+    <t>Nhập ký gửi tự động</t>
+  </si>
+  <si>
+    <t>N0601</t>
+  </si>
+  <si>
+    <t>Nhập tự động ký gửi</t>
+  </si>
+  <si>
+    <t>N07</t>
+  </si>
+  <si>
+    <t>Nhập đóng gói, hoàn thiện sp</t>
+  </si>
+  <si>
+    <t>N0701</t>
+  </si>
+  <si>
+    <t>N08</t>
+  </si>
+  <si>
+    <t>Nhập cân đối định mức sản xuất</t>
+  </si>
+  <si>
+    <t>N0801</t>
+  </si>
+  <si>
+    <t>N09</t>
+  </si>
+  <si>
+    <t>Nhập chuyển đổi số dư đầu kỳ</t>
+  </si>
+  <si>
+    <t>N0901</t>
+  </si>
+  <si>
+    <t>Nhập kho đổ số dư đầu kỳ khi chuyển đổi số liệu lên hệ thống mới</t>
+  </si>
+  <si>
+    <t>Tài khoản phân tích</t>
+  </si>
+  <si>
+    <t>Mã</t>
+  </si>
+  <si>
+    <t>Khách hàng</t>
+  </si>
+  <si>
+    <t>Kế hoạch</t>
+  </si>
+  <si>
+    <t>Công ty</t>
+  </si>
+  <si>
+    <t>Nợ</t>
+  </si>
+  <si>
+    <t>Có</t>
+  </si>
+  <si>
+    <t>Số dư</t>
+  </si>
+  <si>
+    <t>1271010710</t>
+  </si>
+  <si>
+    <t>Forlife</t>
+  </si>
+  <si>
+    <t>Công ty sản xuất</t>
+  </si>
+  <si>
+    <t>[1461020000] P. Tài chính</t>
+  </si>
+  <si>
+    <t>Ban giám đốc</t>
+  </si>
+  <si>
+    <t>1511020000</t>
+  </si>
+  <si>
+    <t>Chung</t>
+  </si>
+  <si>
+    <t>1131000000</t>
+  </si>
+  <si>
+    <t>1121000000</t>
+  </si>
+  <si>
+    <t>Chung - Ban lãnh đạo</t>
+  </si>
+  <si>
+    <t>1511000000</t>
+  </si>
+  <si>
+    <t>Chung - Cung ứng hàng hóa</t>
+  </si>
+  <si>
+    <t>1481000000</t>
+  </si>
+  <si>
+    <t>Chung - Format</t>
+  </si>
+  <si>
+    <t>1221000000</t>
+  </si>
+  <si>
+    <t>Chung - Hành chính nhân sự</t>
+  </si>
+  <si>
+    <t>1451000000</t>
+  </si>
+  <si>
+    <t>Chung - IT</t>
+  </si>
+  <si>
+    <t>1441000000</t>
+  </si>
+  <si>
+    <t>Chung - Kế toán tài chính</t>
+  </si>
+  <si>
+    <t>1461000000</t>
+  </si>
+  <si>
+    <t>Chung - Kho vận</t>
+  </si>
+  <si>
+    <t>1491000000</t>
+  </si>
+  <si>
+    <t>Chung - Marketing</t>
+  </si>
+  <si>
+    <t>1351000000</t>
+  </si>
+  <si>
+    <t>Chung - Mặt bằng &amp; Xây dựng</t>
+  </si>
+  <si>
+    <t>1471000000</t>
+  </si>
+  <si>
+    <t>Chung - Sản xuất</t>
+  </si>
+  <si>
+    <t>1111000000</t>
+  </si>
+  <si>
+    <t>Chung - Thương mại điện tử</t>
+  </si>
+  <si>
+    <t>1261000000</t>
+  </si>
+  <si>
+    <t>Chung - TN khách hàng</t>
+  </si>
+  <si>
+    <t>1341000000</t>
+  </si>
+  <si>
+    <t>Chung - Tokyolife</t>
+  </si>
+  <si>
+    <t>1231000000</t>
+  </si>
+  <si>
+    <t>Dự án CDP</t>
+  </si>
+  <si>
+    <t>1341090000</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>1221010210</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>1221020210</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>1221030210</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>1221040210</t>
+  </si>
+  <si>
+    <t>F Bắc Giang</t>
+  </si>
+  <si>
+    <t>1221034021</t>
+  </si>
+  <si>
+    <t>F Bắc Ninh</t>
+  </si>
+  <si>
+    <t>1221034009</t>
+  </si>
+  <si>
+    <t>F Bà Triệu</t>
+  </si>
+  <si>
+    <t>1221014002</t>
+  </si>
+  <si>
+    <t>F Cầu Giấy</t>
+  </si>
+  <si>
+    <t>1221014003</t>
+  </si>
+  <si>
+    <t>F Đà Nẵng 1</t>
+  </si>
+  <si>
+    <t>1221044020</t>
+  </si>
+  <si>
+    <t>F Hà Đông</t>
+  </si>
+  <si>
+    <t>1221014006</t>
+  </si>
+  <si>
+    <t>F Hải Dương</t>
+  </si>
+  <si>
+    <t>1221024019</t>
+  </si>
+  <si>
+    <t>F Hải Phòng 1</t>
+  </si>
+  <si>
+    <t>1221024010</t>
+  </si>
+  <si>
+    <t>F Hải Phòng 2</t>
+  </si>
+  <si>
+    <t>1221024017</t>
+  </si>
+  <si>
+    <t>F Hạ Long 2</t>
+  </si>
+  <si>
+    <t>1221024016</t>
+  </si>
+  <si>
+    <t>F Lạc Long Quân</t>
+  </si>
+  <si>
+    <t>1221014011</t>
+  </si>
+  <si>
+    <t>F Nam Định</t>
+  </si>
+  <si>
+    <t>1221044018</t>
+  </si>
+  <si>
+    <t>F Nguyễn Văn Cừ</t>
+  </si>
+  <si>
+    <t>1221014007</t>
+  </si>
+  <si>
+    <t>F Thái Hà</t>
+  </si>
+  <si>
+    <t>1221014013</t>
+  </si>
+  <si>
+    <t>F Thái Nguyên</t>
+  </si>
+  <si>
+    <t>1221044012</t>
+  </si>
+  <si>
+    <t>F Thanh Hóa</t>
+  </si>
+  <si>
+    <t>1221044005</t>
+  </si>
+  <si>
+    <t>F Trần Duy Hưng</t>
+  </si>
+  <si>
+    <t>1221014001</t>
+  </si>
+  <si>
+    <t>F Trần Phú</t>
+  </si>
+  <si>
+    <t>1221014015</t>
+  </si>
+  <si>
+    <t>F Việt Trì</t>
+  </si>
+  <si>
+    <t>1221034014</t>
+  </si>
+  <si>
+    <t>F Vinh</t>
+  </si>
+  <si>
+    <t>1221044004</t>
+  </si>
+  <si>
+    <t>F Vĩnh Yên</t>
+  </si>
+  <si>
+    <t>1221034008</t>
+  </si>
+  <si>
+    <t>HĐQT</t>
+  </si>
+  <si>
+    <t>1511010000</t>
+  </si>
+  <si>
+    <t>Kho Đà Lạt</t>
+  </si>
+  <si>
+    <t>1491030018</t>
+  </si>
+  <si>
+    <t>Kho Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>1491030019</t>
+  </si>
+  <si>
+    <t>Khối cửa hàng - chung</t>
+  </si>
+  <si>
+    <t>1511080000</t>
+  </si>
+  <si>
+    <t>Khối văn phòng</t>
+  </si>
+  <si>
+    <t>1511070001</t>
+  </si>
+  <si>
+    <t>Kho K10</t>
+  </si>
+  <si>
+    <t>1491030016</t>
+  </si>
+  <si>
+    <t>Kho K11</t>
+  </si>
+  <si>
+    <t>1491030017</t>
+  </si>
+  <si>
+    <t>Kho K2</t>
+  </si>
+  <si>
+    <t>1491030013</t>
+  </si>
+  <si>
+    <t>Kho K3</t>
+  </si>
+  <si>
+    <t>1491030014</t>
+  </si>
+  <si>
+    <t>Kho K5</t>
+  </si>
+  <si>
+    <t>1491030015</t>
+  </si>
+  <si>
+    <t>Kho Khoang Mái 1</t>
+  </si>
+  <si>
+    <t>1491030011</t>
+  </si>
+  <si>
+    <t>Kho Khoang Mái 2</t>
+  </si>
+  <si>
+    <t>1491030012</t>
+  </si>
+  <si>
+    <t>Kho Nguyên Phụ Liệu</t>
+  </si>
+  <si>
+    <t>1121050210</t>
+  </si>
+  <si>
+    <t>Kho Phùng Xá</t>
+  </si>
+  <si>
+    <t>1491030020</t>
+  </si>
+  <si>
+    <t>Kho Phùng Xá 2</t>
+  </si>
+  <si>
+    <t>1491030021</t>
+  </si>
+  <si>
+    <t>Kho Thương mại điện tử</t>
+  </si>
+  <si>
+    <t>1491030610</t>
+  </si>
+  <si>
+    <t>Kho Yên Sơn 1</t>
+  </si>
+  <si>
+    <t>1491030022</t>
+  </si>
+  <si>
+    <t>Kho Yên Sơn 2</t>
+  </si>
+  <si>
+    <t>1491030023</t>
+  </si>
+  <si>
+    <t>Nhóm hạnh phúc</t>
+  </si>
+  <si>
+    <t>1511070000</t>
+  </si>
+  <si>
+    <t>Nhóm triển khai sản xuất - format</t>
+  </si>
+  <si>
+    <t>1121010210</t>
+  </si>
+  <si>
+    <t>Nhóm triển khai sản xuất - Tokyolife</t>
+  </si>
+  <si>
+    <t>1131010310</t>
+  </si>
+  <si>
+    <t>Nhóm trợ lý Kinh doanh</t>
+  </si>
+  <si>
+    <t>1211010000</t>
+  </si>
+  <si>
+    <t>Nhóm Visual MKT</t>
+  </si>
+  <si>
+    <t>1481090000</t>
+  </si>
+  <si>
+    <t>P. Đảm bảo chất lượng sản phẩm</t>
+  </si>
+  <si>
+    <t>1491020000</t>
+  </si>
+  <si>
+    <t>P. Đảm bảo chất lượng và cải tiến hệ thống</t>
+  </si>
+  <si>
+    <t>1451030000</t>
+  </si>
+  <si>
+    <t>P. Đảm bảo và PT nguồn nhân lực</t>
+  </si>
+  <si>
+    <t>1451010000</t>
+  </si>
+  <si>
+    <t>P. Đào tạo</t>
+  </si>
+  <si>
+    <t>1451040000</t>
+  </si>
+  <si>
+    <t>P. Dịch vụ Khách hàng FM</t>
+  </si>
+  <si>
+    <t>1341010210</t>
+  </si>
+  <si>
+    <t>P. Dịch vụ Khách hàng TKL</t>
+  </si>
+  <si>
+    <t>1341020310</t>
+  </si>
+  <si>
+    <t>P. Dự án xây dựng</t>
+  </si>
+  <si>
+    <t>1471020000</t>
+  </si>
+  <si>
+    <t>P. Giải pháp công nghệ</t>
+  </si>
+  <si>
+    <t>1441020000</t>
+  </si>
+  <si>
+    <t>P. Giải pháp phần mềm 1</t>
+  </si>
+  <si>
+    <t>1441030000</t>
+  </si>
+  <si>
+    <t>P. Giải pháp phần mềm 2</t>
+  </si>
+  <si>
+    <t>1441040000</t>
+  </si>
+  <si>
+    <t>P. Hành chính tổng hợp</t>
+  </si>
+  <si>
+    <t>1451020000</t>
+  </si>
+  <si>
+    <t>P. Hạ tầng và hỗ trợ Dịch vụ CNTT</t>
+  </si>
+  <si>
+    <t>1441010000</t>
+  </si>
+  <si>
+    <t>P. Kế toán</t>
+  </si>
+  <si>
+    <t>1461010000</t>
+  </si>
+  <si>
+    <t>P. Kho vận</t>
+  </si>
+  <si>
+    <t>1491010000</t>
+  </si>
+  <si>
+    <t>P. Kinh doanh B2B</t>
+  </si>
+  <si>
+    <t>P. Kinh doanh B2B - Chung</t>
+  </si>
+  <si>
+    <t>1271000000</t>
+  </si>
+  <si>
+    <t>P. Mẫu</t>
+  </si>
+  <si>
+    <t>1111020000</t>
+  </si>
+  <si>
+    <t>P. Merchandise FM</t>
+  </si>
+  <si>
+    <t>1481020210</t>
+  </si>
+  <si>
+    <t>P. Merchandise HCM</t>
+  </si>
+  <si>
+    <t>1481040000</t>
+  </si>
+  <si>
+    <t>P. Merchandise PK&amp;GD TKL</t>
+  </si>
+  <si>
+    <t>1481050000</t>
+  </si>
+  <si>
+    <t>P. Merchandise TKL</t>
+  </si>
+  <si>
+    <t>1481030310</t>
+  </si>
+  <si>
+    <t>P.MKT FM</t>
+  </si>
+  <si>
+    <t>1351010210</t>
+  </si>
+  <si>
+    <t>P.MKT TKL</t>
+  </si>
+  <si>
+    <t>1351020310</t>
+  </si>
+  <si>
+    <t>P. Mua hàng</t>
+  </si>
+  <si>
+    <t>1481010000</t>
+  </si>
+  <si>
+    <t>P. Phát triển mặt bằng</t>
+  </si>
+  <si>
+    <t>1471010000</t>
+  </si>
+  <si>
+    <t>P. Tài chính</t>
+  </si>
+  <si>
+    <t>1461020000</t>
+  </si>
+  <si>
+    <t>P. Thiết Kế</t>
+  </si>
+  <si>
+    <t>1111010000</t>
+  </si>
+  <si>
+    <t>P. Thương mại điện tử</t>
+  </si>
+  <si>
+    <t>1261010610</t>
+  </si>
+  <si>
+    <t>P. VH và Truyền thông nội bộ</t>
+  </si>
+  <si>
+    <t>1451050000</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>1231010310</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>1231020310</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>1231030310</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>1231040310</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>1231050310</t>
+  </si>
+  <si>
+    <t>T Âu Cơ Sài Gòn</t>
+  </si>
+  <si>
+    <t>1231043028</t>
+  </si>
+  <si>
+    <t>T Bắc Giang 1</t>
+  </si>
+  <si>
+    <t>1231023046</t>
+  </si>
+  <si>
+    <t>T Bắc Giang 2</t>
+  </si>
+  <si>
+    <t>1231023061</t>
+  </si>
+  <si>
+    <t>T Bạc Liêu</t>
+  </si>
+  <si>
+    <t>1231043111</t>
+  </si>
+  <si>
+    <t>T Bắc Ninh 2</t>
+  </si>
+  <si>
+    <t>1231023044</t>
+  </si>
+  <si>
+    <t>T Bắc Ninh 3</t>
+  </si>
+  <si>
+    <t>1231023068</t>
+  </si>
+  <si>
+    <t>T Ba Đồn</t>
+  </si>
+  <si>
+    <t>1231033116</t>
+  </si>
+  <si>
+    <t>T Ba Đồn 2</t>
+  </si>
+  <si>
+    <t>1231033134</t>
+  </si>
+  <si>
+    <t>T Ba Hàng</t>
+  </si>
+  <si>
+    <t>1231023112</t>
+  </si>
+  <si>
+    <t>T Bãi Cháy</t>
+  </si>
+  <si>
+    <t>1231053099</t>
+  </si>
+  <si>
+    <t>T Bà Rịa</t>
+  </si>
+  <si>
+    <t>1231043157</t>
+  </si>
+  <si>
+    <t>T Bến Cát</t>
+  </si>
+  <si>
+    <t>1231043153</t>
+  </si>
+  <si>
+    <t>T Biên Hòa 2</t>
+  </si>
+  <si>
+    <t>1231043083</t>
+  </si>
+  <si>
+    <t>T Bỉm Sơn</t>
+  </si>
+  <si>
+    <t>1231033014</t>
+  </si>
+  <si>
+    <t>T Bình Dương</t>
+  </si>
+  <si>
+    <t>1231043020</t>
+  </si>
+  <si>
+    <t>T Bình Dương 3</t>
+  </si>
+  <si>
+    <t>1231043148</t>
+  </si>
+  <si>
+    <t>T Bưởi</t>
+  </si>
+  <si>
+    <t>1231013069</t>
+  </si>
+  <si>
+    <t>T Cà Mau</t>
+  </si>
+  <si>
+    <t>1231043149</t>
+  </si>
+  <si>
+    <t>T Cà Mau 2</t>
+  </si>
+  <si>
+    <t>1231043150</t>
+  </si>
+  <si>
+    <t>T Cẩm Giàng</t>
+  </si>
+  <si>
+    <t>1231053163</t>
+  </si>
+  <si>
+    <t>T Cẩm Phả</t>
+  </si>
+  <si>
+    <t>1231053050</t>
+  </si>
+  <si>
+    <t>T Cam Ranh</t>
+  </si>
+  <si>
+    <t>1231033135</t>
+  </si>
+  <si>
+    <t>T Cẩm Xuyên</t>
+  </si>
+  <si>
+    <t>1231033144</t>
+  </si>
+  <si>
+    <t>T Can Lộc</t>
+  </si>
+  <si>
+    <t>1231033126</t>
+  </si>
+  <si>
+    <t>T Cần Thơ</t>
+  </si>
+  <si>
+    <t>1231043051</t>
+  </si>
+  <si>
+    <t>T Cầu Diễn</t>
+  </si>
+  <si>
+    <t>1231013031</t>
+  </si>
+  <si>
+    <t>T Cầu Giấy</t>
+  </si>
+  <si>
+    <t>1231013009</t>
+  </si>
+  <si>
+    <t>T Cầu Giấy 2</t>
+  </si>
+  <si>
+    <t>1231013114</t>
+  </si>
+  <si>
+    <t>T Chùa Bộc</t>
+  </si>
+  <si>
+    <t>1231013006</t>
+  </si>
+  <si>
+    <t>T Chúc Sơn</t>
+  </si>
+  <si>
+    <t>1231023104</t>
+  </si>
+  <si>
+    <t>T Đà Nẵng</t>
+  </si>
+  <si>
+    <t>1231033040</t>
+  </si>
+  <si>
+    <t>T Đà Nẵng 2</t>
+  </si>
+  <si>
+    <t>1231033101</t>
+  </si>
+  <si>
+    <t>T Đông Anh</t>
+  </si>
+  <si>
+    <t>1231013002</t>
+  </si>
+  <si>
+    <t>T Đông Hà</t>
+  </si>
+  <si>
+    <t>1231033033</t>
+  </si>
+  <si>
+    <t>T Đông Hà 2</t>
+  </si>
+  <si>
+    <t>1231033087</t>
+  </si>
+  <si>
+    <t>T Đồng Hới 1</t>
+  </si>
+  <si>
+    <t>1231033010</t>
+  </si>
+  <si>
+    <t>T Đồng Hới 2</t>
+  </si>
+  <si>
+    <t>1231033056</t>
+  </si>
+  <si>
+    <t>T Đông Hưng</t>
+  </si>
+  <si>
+    <t>1231053151</t>
+  </si>
+  <si>
+    <t>T Đồng Văn</t>
+  </si>
+  <si>
+    <t>1231033127</t>
+  </si>
+  <si>
+    <t>T Đức Phổ</t>
+  </si>
+  <si>
+    <t>1231033133</t>
+  </si>
+  <si>
+    <t>T Gạch</t>
+  </si>
+  <si>
+    <t>1231023062</t>
+  </si>
+  <si>
+    <t>T Giếng Đáy</t>
+  </si>
+  <si>
+    <t>1231053119</t>
+  </si>
+  <si>
+    <t>T Hải Dương</t>
+  </si>
+  <si>
+    <t>1231053001</t>
+  </si>
+  <si>
+    <t>T Hải Dương 2</t>
+  </si>
+  <si>
+    <t>1231053075</t>
+  </si>
+  <si>
+    <t>T Hải Phòng 2</t>
+  </si>
+  <si>
+    <t>1231053024</t>
+  </si>
+  <si>
+    <t>T Hải Phòng 3</t>
+  </si>
+  <si>
+    <t>1231053070</t>
+  </si>
+  <si>
+    <t>T Hải Phòng 4</t>
+  </si>
+  <si>
+    <t>1231053088</t>
+  </si>
+  <si>
+    <t>T Hải Phòng 5</t>
+  </si>
+  <si>
+    <t>1231053096</t>
+  </si>
+  <si>
+    <t>T Hải Phú</t>
+  </si>
+  <si>
+    <t>1231033125</t>
+  </si>
+  <si>
+    <t>T Hạ Long 3</t>
+  </si>
+  <si>
+    <t>1231053048</t>
+  </si>
+  <si>
+    <t>T Hạ Long 4</t>
+  </si>
+  <si>
+    <t>1231053092</t>
+  </si>
+  <si>
+    <t>T Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>1231033043</t>
+  </si>
+  <si>
+    <t>T Hà Trung</t>
+  </si>
+  <si>
+    <t>1231033128</t>
+  </si>
+  <si>
+    <t>T Hòa Bình</t>
+  </si>
+  <si>
+    <t>1231023022</t>
+  </si>
+  <si>
+    <t>T Hoàng Mai</t>
+  </si>
+  <si>
+    <t>1231033130</t>
+  </si>
+  <si>
+    <t>T Hồng Lĩnh</t>
+  </si>
+  <si>
+    <t>1231033154</t>
+  </si>
+  <si>
+    <t>T Hồ Tùng Mậu</t>
+  </si>
+  <si>
+    <t>1231013015</t>
+  </si>
+  <si>
+    <t>T Huế</t>
+  </si>
+  <si>
+    <t>1231033027</t>
+  </si>
+  <si>
+    <t>T Huế 3</t>
+  </si>
+  <si>
+    <t>1231033086</t>
+  </si>
+  <si>
+    <t>T Hưng Yên</t>
+  </si>
+  <si>
+    <t>1231053030</t>
+  </si>
+  <si>
+    <t>T Kẻ Sặt</t>
+  </si>
+  <si>
+    <t>1231053120</t>
+  </si>
+  <si>
+    <t>T Kiến An</t>
+  </si>
+  <si>
+    <t>1231053080</t>
+  </si>
+  <si>
+    <t>T Kiên Giang</t>
+  </si>
+  <si>
+    <t>1231043029</t>
+  </si>
+  <si>
+    <t>T Kim Thành</t>
+  </si>
+  <si>
+    <t>1231053129</t>
+  </si>
+  <si>
+    <t>T Kinh Môn</t>
+  </si>
+  <si>
+    <t>1231053123</t>
+  </si>
+  <si>
+    <t>T Kontum</t>
+  </si>
+  <si>
+    <t>1231033064</t>
+  </si>
+  <si>
+    <t>T Kỳ Anh</t>
+  </si>
+  <si>
+    <t>1231033131</t>
+  </si>
+  <si>
+    <t>T Kỳ Anh 2</t>
+  </si>
+  <si>
+    <t>1231033140</t>
+  </si>
+  <si>
+    <t>T Lạch Tray 1</t>
+  </si>
+  <si>
+    <t>1231053081</t>
+  </si>
+  <si>
+    <t>T Lạng Sơn</t>
+  </si>
+  <si>
+    <t>1231023079</t>
+  </si>
+  <si>
+    <t>T Lào Cai</t>
+  </si>
+  <si>
+    <t>1231023071</t>
+  </si>
+  <si>
+    <t>T Lê Văn Khương</t>
+  </si>
+  <si>
+    <t>1231043082</t>
+  </si>
+  <si>
+    <t>T Linh Đàm</t>
+  </si>
+  <si>
+    <t>1231013008</t>
+  </si>
+  <si>
+    <t>T Lĩnh Nam</t>
+  </si>
+  <si>
+    <t>1231013066</t>
+  </si>
+  <si>
+    <t>T Mạo Khê</t>
+  </si>
+  <si>
+    <t>1231053108</t>
+  </si>
+  <si>
+    <t>T Minh Khai</t>
+  </si>
+  <si>
+    <t>1231013093</t>
+  </si>
+  <si>
+    <t>T Móng Cái</t>
+  </si>
+  <si>
+    <t>1231053137</t>
+  </si>
+  <si>
+    <t>T Nam Định 2</t>
+  </si>
+  <si>
+    <t>1231053039</t>
+  </si>
+  <si>
+    <t>T Nam Định 3</t>
+  </si>
+  <si>
+    <t>1231053067</t>
+  </si>
+  <si>
+    <t>T Nam Sách</t>
+  </si>
+  <si>
+    <t>1231053142</t>
+  </si>
+  <si>
+    <t>T Ngọc Hồi</t>
+  </si>
+  <si>
+    <t>1231013098</t>
+  </si>
+  <si>
+    <t>T Ngọc Lâm</t>
+  </si>
+  <si>
+    <t>1231013003</t>
+  </si>
+  <si>
+    <t>T Ngô Gia Tự</t>
+  </si>
+  <si>
+    <t>1231013011</t>
+  </si>
+  <si>
+    <t>T Ngô Xuân Quảng</t>
+  </si>
+  <si>
+    <t>1231013073</t>
+  </si>
+  <si>
+    <t>T Nguyễn Hoàng</t>
+  </si>
+  <si>
+    <t>1231013019</t>
+  </si>
+  <si>
+    <t>T Nguyễn Văn Lộc</t>
+  </si>
+  <si>
+    <t>1231013063</t>
+  </si>
+  <si>
+    <t>T Nha Trang</t>
+  </si>
+  <si>
+    <t>1231033072</t>
+  </si>
+  <si>
+    <t>T Như Quỳnh</t>
+  </si>
+  <si>
+    <t>1231053139</t>
+  </si>
+  <si>
+    <t>T Ninh Bình 2</t>
+  </si>
+  <si>
+    <t>1231053042</t>
+  </si>
+  <si>
+    <t>T Phạm Ngọc Thạch 1</t>
+  </si>
+  <si>
+    <t>1231013049</t>
+  </si>
+  <si>
+    <t>T Phạm Ngọc Thạch 2</t>
+  </si>
+  <si>
+    <t>1231013005</t>
+  </si>
+  <si>
+    <t>T Phạm Văn Đồng</t>
+  </si>
+  <si>
+    <t>1231013058</t>
+  </si>
+  <si>
+    <t>T Phan Thiết</t>
+  </si>
+  <si>
+    <t>1231033047</t>
+  </si>
+  <si>
+    <t>T Phố Nối</t>
+  </si>
+  <si>
+    <t>1231053090</t>
+  </si>
+  <si>
+    <t>T Phúc Yên</t>
+  </si>
+  <si>
+    <t>1231023065</t>
+  </si>
+  <si>
+    <t>T Phù Lỗ</t>
+  </si>
+  <si>
+    <t>1231013118</t>
+  </si>
+  <si>
+    <t>T Phủ Lý</t>
+  </si>
+  <si>
+    <t>1231053013</t>
+  </si>
+  <si>
+    <t>T Phủ Lý 2</t>
+  </si>
+  <si>
+    <t>1231053121</t>
+  </si>
+  <si>
+    <t>T Phùng</t>
+  </si>
+  <si>
+    <t>1231023057</t>
+  </si>
+  <si>
+    <t>T Phùng Khoang</t>
+  </si>
+  <si>
+    <t>1231013004</t>
+  </si>
+  <si>
+    <t>T Phú Quốc  Kiên Giang</t>
+  </si>
+  <si>
+    <t>1231043160</t>
+  </si>
+  <si>
+    <t>T Quảng Ngãi</t>
+  </si>
+  <si>
+    <t>1231033037</t>
+  </si>
+  <si>
+    <t>T Quảng Ngãi 2</t>
+  </si>
+  <si>
+    <t>1231033132</t>
+  </si>
+  <si>
+    <t>T Quang Trung</t>
+  </si>
+  <si>
+    <t>1231013035</t>
+  </si>
+  <si>
+    <t>T Quán Lào</t>
+  </si>
+  <si>
+    <t>1231033122</t>
+  </si>
+  <si>
+    <t>T Quán Toan</t>
+  </si>
+  <si>
+    <t>1231053147</t>
+  </si>
+  <si>
+    <t>T Quế Võ</t>
+  </si>
+  <si>
+    <t>1231023076</t>
+  </si>
+  <si>
+    <t>T Quỳnh Côi</t>
+  </si>
+  <si>
+    <t>1231053164</t>
+  </si>
+  <si>
+    <t>T Quy Nhơn</t>
+  </si>
+  <si>
+    <t>1231033041</t>
+  </si>
+  <si>
+    <t>T Sao Đỏ</t>
+  </si>
+  <si>
+    <t>1231053085</t>
+  </si>
+  <si>
+    <t>T Sóc Sơn</t>
+  </si>
+  <si>
+    <t>1231013162</t>
+  </si>
+  <si>
+    <t>T Sóc Trăng</t>
+  </si>
+  <si>
+    <t>1231043113</t>
+  </si>
+  <si>
+    <t>T Sơn Tây</t>
+  </si>
+  <si>
+    <t>1231023007</t>
+  </si>
+  <si>
+    <t>T Tam Điệp</t>
+  </si>
+  <si>
+    <t>1231053100</t>
+  </si>
+  <si>
+    <t>T Tam Kỳ</t>
+  </si>
+  <si>
+    <t>1231033055</t>
+  </si>
+  <si>
+    <t>T Tân Hương - Nguyễn Súy</t>
+  </si>
+  <si>
+    <t>1231043105</t>
+  </si>
+  <si>
+    <t>T Tân Triều</t>
+  </si>
+  <si>
+    <t>1231013018</t>
+  </si>
+  <si>
+    <t>T Thái Bình 2</t>
+  </si>
+  <si>
+    <t>1231053059</t>
+  </si>
+  <si>
+    <t>T Thái Hà</t>
+  </si>
+  <si>
+    <t>1231013060</t>
+  </si>
+  <si>
+    <t>T Thái Nguyên 2</t>
+  </si>
+  <si>
+    <t>1231023023</t>
+  </si>
+  <si>
+    <t>T Thái Nguyên 3</t>
+  </si>
+  <si>
+    <t>1231023074</t>
+  </si>
+  <si>
+    <t>T Thái Thịnh</t>
+  </si>
+  <si>
+    <t>1231013052</t>
+  </si>
+  <si>
+    <t>T Thanh Hà</t>
+  </si>
+  <si>
+    <t>1231053141</t>
+  </si>
+  <si>
+    <t>T Thanh hóa 2</t>
+  </si>
+  <si>
+    <t>1231033032</t>
+  </si>
+  <si>
+    <t>T Thanh Hóa 3</t>
+  </si>
+  <si>
+    <t>1231033054</t>
+  </si>
+  <si>
+    <t>T Thanh Hóa 4</t>
+  </si>
+  <si>
+    <t>1231033138</t>
+  </si>
+  <si>
+    <t>T Thanh Miện</t>
+  </si>
+  <si>
+    <t>1231053156</t>
+  </si>
+  <si>
+    <t>T Thanh Nhàn</t>
+  </si>
+  <si>
+    <t>1231013078</t>
+  </si>
+  <si>
+    <t>T Thứa</t>
+  </si>
+  <si>
+    <t>1231023136</t>
+  </si>
+  <si>
+    <t>T Thượng Đình</t>
+  </si>
+  <si>
+    <t>1231013097</t>
+  </si>
+  <si>
+    <t>T Thủy Nguyên</t>
+  </si>
+  <si>
+    <t>1231053109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T Tiền Hải </t>
+  </si>
+  <si>
+    <t>1231053107</t>
+  </si>
+  <si>
+    <t>T Tố Hữu</t>
+  </si>
+  <si>
+    <t>1231013038</t>
+  </si>
+  <si>
+    <t>T Trạm Trôi</t>
+  </si>
+  <si>
+    <t>1231023143</t>
+  </si>
+  <si>
+    <t>T Trần Duy Hưng</t>
+  </si>
+  <si>
+    <t>1231013045</t>
+  </si>
+  <si>
+    <t>T Trảng Dài</t>
+  </si>
+  <si>
+    <t>1231043146</t>
+  </si>
+  <si>
+    <t>T Từ Sơn</t>
+  </si>
+  <si>
+    <t>1231023016</t>
+  </si>
+  <si>
+    <t>T Tuyên Quang</t>
+  </si>
+  <si>
+    <t>1231023095</t>
+  </si>
+  <si>
+    <t>T Tuy Hòa 1</t>
+  </si>
+  <si>
+    <t>1231033102</t>
+  </si>
+  <si>
+    <t>T Uông Bí</t>
+  </si>
+  <si>
+    <t>1231053012</t>
+  </si>
+  <si>
+    <t>T Việt Trì 2</t>
+  </si>
+  <si>
+    <t>1231023017</t>
+  </si>
+  <si>
+    <t>T Việt Trì 3</t>
+  </si>
+  <si>
+    <t>1231023077</t>
+  </si>
+  <si>
+    <t>T Vinh 2</t>
+  </si>
+  <si>
+    <t>1231033021</t>
+  </si>
+  <si>
+    <t>T Vinh 3</t>
+  </si>
+  <si>
+    <t>1231033036</t>
+  </si>
+  <si>
+    <t>T Vinh 4</t>
+  </si>
+  <si>
+    <t>1231033034</t>
+  </si>
+  <si>
+    <t>T Vinh 5</t>
+  </si>
+  <si>
+    <t>1231033145</t>
+  </si>
+  <si>
+    <t>T Vĩnh Yên</t>
+  </si>
+  <si>
+    <t>1231023026</t>
+  </si>
+  <si>
+    <t>T Vĩnh Yên 2</t>
+  </si>
+  <si>
+    <t>1231023115</t>
+  </si>
+  <si>
+    <t>T Vũng Tàu</t>
+  </si>
+  <si>
+    <t>1231043025</t>
+  </si>
+  <si>
+    <t>T Vũng Tàu 2</t>
+  </si>
+  <si>
+    <t>1231043110</t>
+  </si>
+  <si>
+    <t>T Vũ Trọng Phụng</t>
+  </si>
+  <si>
+    <t>1231013159</t>
+  </si>
+  <si>
+    <t>T Xuân Mai</t>
+  </si>
+  <si>
+    <t>1231023053</t>
+  </si>
+  <si>
+    <t>T Yên Phong  Bắc Ninh</t>
+  </si>
+  <si>
+    <t>1231023161</t>
+  </si>
+  <si>
+    <t>Văn phòng Fafim</t>
+  </si>
+  <si>
+    <t>1511050000</t>
+  </si>
+  <si>
+    <t>Văn phòng Hapulico</t>
+  </si>
+  <si>
+    <t>1511060000</t>
+  </si>
+  <si>
+    <t>Văn phòng Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>1511030000</t>
+  </si>
+  <si>
+    <t>Văn phòng Thái Hà</t>
+  </si>
+  <si>
+    <t>1511040000</t>
+  </si>
+  <si>
+    <t>Xưởng bác Sửu</t>
+  </si>
+  <si>
+    <t>1121060210</t>
+  </si>
+  <si>
+    <t>Xưởng Đà Lạt</t>
+  </si>
+  <si>
+    <t>1121020210</t>
+  </si>
+  <si>
+    <t>Xưởng Minh Khai</t>
+  </si>
+  <si>
+    <t>1121030210</t>
+  </si>
+  <si>
+    <t>Xưởng Nguyễn Văn Cừ</t>
+  </si>
+  <si>
+    <t>1121040210</t>
+  </si>
+  <si>
+    <t>Loại lý do</t>
+  </si>
+  <si>
+    <t>Lý do nhập khác</t>
+  </si>
+  <si>
+    <t>Địa điểm đích</t>
+  </si>
+  <si>
+    <t>Mã vụ việc</t>
+  </si>
+  <si>
+    <t>Lệnh sản xuất</t>
+  </si>
+  <si>
+    <t>Trung tâm chi phí</t>
+  </si>
+  <si>
+    <t>Địa điểm xuât NPL</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +2376,48 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,14 +2436,8 @@
         <bgColor rgb="FF70AD47"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FF70AD47"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -287,28 +2475,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -319,17 +2536,105 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,203 +2948,5480 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="19" customWidth="1"/>
+    <col min="11" max="11" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="42" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>612</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>613</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>617</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>615</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>616</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>618</v>
+      </c>
+      <c r="K1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="L1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="44">
         <v>44655</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13">
+      <c r="L2" s="40">
         <v>45163</v>
       </c>
-      <c r="E2" s="5">
+      <c r="M2" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="N2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="O2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="8">
+      <c r="P2" s="4">
         <v>1075</v>
       </c>
-      <c r="I2" s="7">
+      <c r="Q2" s="3">
         <v>1405000161</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="R2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="7">
+      <c r="S2" s="3">
         <v>1511020000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="10" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="13">
+      <c r="L3" s="40">
         <v>45164</v>
       </c>
-      <c r="E3" s="5">
+      <c r="M3" s="2">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="N3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="O3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="8">
+      <c r="P3" s="4">
         <v>1076</v>
       </c>
-      <c r="I3" s="7">
+      <c r="Q3" s="3">
         <v>1405000161</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="R3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="7">
+      <c r="S3" s="3">
         <v>1511020000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="44">
         <v>44655</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13">
+      <c r="L4" s="40">
         <v>45165</v>
       </c>
-      <c r="E4" s="5">
+      <c r="M4" s="2">
         <v>20</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="N4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="O4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="8">
+      <c r="P4" s="4">
         <v>1077</v>
       </c>
-      <c r="I4" s="7">
+      <c r="Q4" s="3">
         <v>1405000161</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="R4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="7">
+      <c r="S4" s="3">
         <v>1511020000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="10" t="s">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="13">
+      <c r="L5" s="40">
         <v>45166</v>
       </c>
-      <c r="E5" s="5">
+      <c r="M5" s="2">
         <v>25</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="N5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="O5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="8">
+      <c r="P5" s="4">
         <v>1078</v>
       </c>
-      <c r="I5" s="7">
+      <c r="Q5" s="3">
         <v>1405000161</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="R5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="7">
+      <c r="S5" s="3">
         <v>1511020000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:J2">
       <formula1>"Nhập khác, Xuất khác"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H263"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
+    <col min="2" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="8" width="30.7109375" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B52" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="B64" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B66" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="B67" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E68" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" s="38"/>
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="B70" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B71" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E71" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="B73" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E73" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="B74" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="C74" s="38"/>
+      <c r="D74" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E74" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B75" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B78" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E78" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F79" s="38"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="B80" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C81" s="38"/>
+      <c r="D81" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="B82" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="C82" s="38"/>
+      <c r="D82" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E82" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="B83" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="B85" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E85" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F85" s="38"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" s="38"/>
+      <c r="D86" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E86" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" s="38"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E87" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F87" s="38"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F88" s="38"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" s="38"/>
+      <c r="D89" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F89" s="38"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="B90" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E90" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="B91" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E91" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F91" s="38"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B92" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E92" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F92" s="38"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="C93" s="38"/>
+      <c r="D93" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E93" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F93" s="38"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="38"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="C94" s="38"/>
+      <c r="D94" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E94" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F94" s="38"/>
+      <c r="G94" s="38"/>
+      <c r="H94" s="38"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B95" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E95" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F95" s="38"/>
+      <c r="G95" s="38"/>
+      <c r="H95" s="38"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="B96" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E96" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="38"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="B97" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E97" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F97" s="38"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="38"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="B98" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E98" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F98" s="38"/>
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="B99" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E99" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F99" s="38"/>
+      <c r="G99" s="38"/>
+      <c r="H99" s="38"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="B100" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E100" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F100" s="38"/>
+      <c r="G100" s="38"/>
+      <c r="H100" s="38"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="B101" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E101" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F101" s="38"/>
+      <c r="G101" s="38"/>
+      <c r="H101" s="38"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="B102" s="38" t="s">
+        <v>288</v>
+      </c>
+      <c r="C102" s="38"/>
+      <c r="D102" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E102" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F102" s="38"/>
+      <c r="G102" s="38"/>
+      <c r="H102" s="38"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="38" t="s">
+        <v>289</v>
+      </c>
+      <c r="B103" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E103" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F103" s="38"/>
+      <c r="G103" s="38"/>
+      <c r="H103" s="38"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="B104" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E104" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F104" s="38"/>
+      <c r="G104" s="38"/>
+      <c r="H104" s="38"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="B105" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E105" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F105" s="38"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="38"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="B106" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E106" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F106" s="38"/>
+      <c r="G106" s="38"/>
+      <c r="H106" s="38"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="B107" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E107" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F107" s="38"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="38"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="B108" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E108" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F108" s="38"/>
+      <c r="G108" s="38"/>
+      <c r="H108" s="38"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="B109" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="C109" s="38"/>
+      <c r="D109" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E109" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F109" s="38"/>
+      <c r="G109" s="38"/>
+      <c r="H109" s="38"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="B110" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E110" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F110" s="38"/>
+      <c r="G110" s="38"/>
+      <c r="H110" s="38"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="B111" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="C111" s="38"/>
+      <c r="D111" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E111" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F111" s="38"/>
+      <c r="G111" s="38"/>
+      <c r="H111" s="38"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="38" t="s">
+        <v>307</v>
+      </c>
+      <c r="B112" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="C112" s="38"/>
+      <c r="D112" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E112" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F112" s="38"/>
+      <c r="G112" s="38"/>
+      <c r="H112" s="38"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="B113" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="C113" s="38"/>
+      <c r="D113" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E113" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F113" s="38"/>
+      <c r="G113" s="38"/>
+      <c r="H113" s="38"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="B114" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="C114" s="38"/>
+      <c r="D114" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E114" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F114" s="38"/>
+      <c r="G114" s="38"/>
+      <c r="H114" s="38"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="B115" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="C115" s="38"/>
+      <c r="D115" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E115" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F115" s="38"/>
+      <c r="G115" s="38"/>
+      <c r="H115" s="38"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="B116" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="C116" s="38"/>
+      <c r="D116" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E116" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F116" s="38"/>
+      <c r="G116" s="38"/>
+      <c r="H116" s="38"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="B117" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="C117" s="38"/>
+      <c r="D117" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E117" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F117" s="38"/>
+      <c r="G117" s="38"/>
+      <c r="H117" s="38"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="B118" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="C118" s="38"/>
+      <c r="D118" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E118" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F118" s="38"/>
+      <c r="G118" s="38"/>
+      <c r="H118" s="38"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="B119" s="38" t="s">
+        <v>322</v>
+      </c>
+      <c r="C119" s="38"/>
+      <c r="D119" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E119" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F119" s="38"/>
+      <c r="G119" s="38"/>
+      <c r="H119" s="38"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="38" t="s">
+        <v>323</v>
+      </c>
+      <c r="B120" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="C120" s="38"/>
+      <c r="D120" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E120" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38"/>
+      <c r="H120" s="38"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="B121" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="C121" s="38"/>
+      <c r="D121" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E121" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F121" s="38"/>
+      <c r="G121" s="38"/>
+      <c r="H121" s="38"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="B122" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="C122" s="38"/>
+      <c r="D122" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E122" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F122" s="38"/>
+      <c r="G122" s="38"/>
+      <c r="H122" s="38"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="38" t="s">
+        <v>329</v>
+      </c>
+      <c r="B123" s="38" t="s">
+        <v>330</v>
+      </c>
+      <c r="C123" s="38"/>
+      <c r="D123" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E123" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F123" s="38"/>
+      <c r="G123" s="38"/>
+      <c r="H123" s="38"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="B124" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="C124" s="38"/>
+      <c r="D124" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E124" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F124" s="38"/>
+      <c r="G124" s="38"/>
+      <c r="H124" s="38"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="38" t="s">
+        <v>333</v>
+      </c>
+      <c r="B125" s="38" t="s">
+        <v>334</v>
+      </c>
+      <c r="C125" s="38"/>
+      <c r="D125" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E125" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F125" s="38"/>
+      <c r="G125" s="38"/>
+      <c r="H125" s="38"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="38" t="s">
+        <v>335</v>
+      </c>
+      <c r="B126" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="C126" s="38"/>
+      <c r="D126" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E126" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F126" s="38"/>
+      <c r="G126" s="38"/>
+      <c r="H126" s="38"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="B127" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="C127" s="38"/>
+      <c r="D127" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E127" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F127" s="38"/>
+      <c r="G127" s="38"/>
+      <c r="H127" s="38"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="38" t="s">
+        <v>339</v>
+      </c>
+      <c r="B128" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="C128" s="38"/>
+      <c r="D128" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E128" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F128" s="38"/>
+      <c r="G128" s="38"/>
+      <c r="H128" s="38"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="B129" s="38" t="s">
+        <v>342</v>
+      </c>
+      <c r="C129" s="38"/>
+      <c r="D129" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E129" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F129" s="38"/>
+      <c r="G129" s="38"/>
+      <c r="H129" s="38"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="38" t="s">
+        <v>343</v>
+      </c>
+      <c r="B130" s="38" t="s">
+        <v>344</v>
+      </c>
+      <c r="C130" s="38"/>
+      <c r="D130" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E130" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F130" s="38"/>
+      <c r="G130" s="38"/>
+      <c r="H130" s="38"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="B131" s="38" t="s">
+        <v>346</v>
+      </c>
+      <c r="C131" s="38"/>
+      <c r="D131" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E131" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F131" s="38"/>
+      <c r="G131" s="38"/>
+      <c r="H131" s="38"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="38" t="s">
+        <v>347</v>
+      </c>
+      <c r="B132" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="C132" s="38"/>
+      <c r="D132" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E132" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F132" s="38"/>
+      <c r="G132" s="38"/>
+      <c r="H132" s="38"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="B133" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="C133" s="38"/>
+      <c r="D133" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E133" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F133" s="38"/>
+      <c r="G133" s="38"/>
+      <c r="H133" s="38"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="38" t="s">
+        <v>351</v>
+      </c>
+      <c r="B134" s="38" t="s">
+        <v>352</v>
+      </c>
+      <c r="C134" s="38"/>
+      <c r="D134" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E134" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F134" s="38"/>
+      <c r="G134" s="38"/>
+      <c r="H134" s="38"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="38" t="s">
+        <v>353</v>
+      </c>
+      <c r="B135" s="38" t="s">
+        <v>354</v>
+      </c>
+      <c r="C135" s="38"/>
+      <c r="D135" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E135" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F135" s="38"/>
+      <c r="G135" s="38"/>
+      <c r="H135" s="38"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="B136" s="38" t="s">
+        <v>356</v>
+      </c>
+      <c r="C136" s="38"/>
+      <c r="D136" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E136" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F136" s="38"/>
+      <c r="G136" s="38"/>
+      <c r="H136" s="38"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="B137" s="38" t="s">
+        <v>358</v>
+      </c>
+      <c r="C137" s="38"/>
+      <c r="D137" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E137" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F137" s="38"/>
+      <c r="G137" s="38"/>
+      <c r="H137" s="38"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="B138" s="38" t="s">
+        <v>360</v>
+      </c>
+      <c r="C138" s="38"/>
+      <c r="D138" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E138" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F138" s="38"/>
+      <c r="G138" s="38"/>
+      <c r="H138" s="38"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="38" t="s">
+        <v>361</v>
+      </c>
+      <c r="B139" s="38" t="s">
+        <v>362</v>
+      </c>
+      <c r="C139" s="38"/>
+      <c r="D139" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E139" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F139" s="38"/>
+      <c r="G139" s="38"/>
+      <c r="H139" s="38"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="B140" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="C140" s="38"/>
+      <c r="D140" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E140" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F140" s="38"/>
+      <c r="G140" s="38"/>
+      <c r="H140" s="38"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="B141" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="C141" s="38"/>
+      <c r="D141" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E141" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F141" s="38"/>
+      <c r="G141" s="38"/>
+      <c r="H141" s="38"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="B142" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="C142" s="38"/>
+      <c r="D142" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E142" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F142" s="38"/>
+      <c r="G142" s="38"/>
+      <c r="H142" s="38"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="B143" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="C143" s="38"/>
+      <c r="D143" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E143" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F143" s="38"/>
+      <c r="G143" s="38"/>
+      <c r="H143" s="38"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="38" t="s">
+        <v>371</v>
+      </c>
+      <c r="B144" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="C144" s="38"/>
+      <c r="D144" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E144" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F144" s="38"/>
+      <c r="G144" s="38"/>
+      <c r="H144" s="38"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="B145" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="C145" s="38"/>
+      <c r="D145" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E145" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F145" s="38"/>
+      <c r="G145" s="38"/>
+      <c r="H145" s="38"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="B146" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="C146" s="38"/>
+      <c r="D146" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E146" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F146" s="38"/>
+      <c r="G146" s="38"/>
+      <c r="H146" s="38"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="B147" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="C147" s="38"/>
+      <c r="D147" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E147" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F147" s="38"/>
+      <c r="G147" s="38"/>
+      <c r="H147" s="38"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="B148" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="C148" s="38"/>
+      <c r="D148" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E148" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F148" s="38"/>
+      <c r="G148" s="38"/>
+      <c r="H148" s="38"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="B149" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="C149" s="38"/>
+      <c r="D149" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E149" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F149" s="38"/>
+      <c r="G149" s="38"/>
+      <c r="H149" s="38"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="B150" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="C150" s="38"/>
+      <c r="D150" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E150" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F150" s="38"/>
+      <c r="G150" s="38"/>
+      <c r="H150" s="38"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="B151" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="C151" s="38"/>
+      <c r="D151" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E151" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F151" s="38"/>
+      <c r="G151" s="38"/>
+      <c r="H151" s="38"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="B152" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="C152" s="38"/>
+      <c r="D152" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E152" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F152" s="38"/>
+      <c r="G152" s="38"/>
+      <c r="H152" s="38"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="B153" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="C153" s="38"/>
+      <c r="D153" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E153" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F153" s="38"/>
+      <c r="G153" s="38"/>
+      <c r="H153" s="38"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="B154" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="C154" s="38"/>
+      <c r="D154" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E154" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F154" s="38"/>
+      <c r="G154" s="38"/>
+      <c r="H154" s="38"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="B155" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="C155" s="38"/>
+      <c r="D155" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E155" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F155" s="38"/>
+      <c r="G155" s="38"/>
+      <c r="H155" s="38"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="B156" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="C156" s="38"/>
+      <c r="D156" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E156" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F156" s="38"/>
+      <c r="G156" s="38"/>
+      <c r="H156" s="38"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="38" t="s">
+        <v>397</v>
+      </c>
+      <c r="B157" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="C157" s="38"/>
+      <c r="D157" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E157" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F157" s="38"/>
+      <c r="G157" s="38"/>
+      <c r="H157" s="38"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="38" t="s">
+        <v>399</v>
+      </c>
+      <c r="B158" s="38" t="s">
+        <v>400</v>
+      </c>
+      <c r="C158" s="38"/>
+      <c r="D158" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E158" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F158" s="38"/>
+      <c r="G158" s="38"/>
+      <c r="H158" s="38"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="B159" s="38" t="s">
+        <v>402</v>
+      </c>
+      <c r="C159" s="38"/>
+      <c r="D159" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E159" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F159" s="38"/>
+      <c r="G159" s="38"/>
+      <c r="H159" s="38"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="B160" s="38" t="s">
+        <v>404</v>
+      </c>
+      <c r="C160" s="38"/>
+      <c r="D160" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E160" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F160" s="38"/>
+      <c r="G160" s="38"/>
+      <c r="H160" s="38"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="38" t="s">
+        <v>405</v>
+      </c>
+      <c r="B161" s="38" t="s">
+        <v>406</v>
+      </c>
+      <c r="C161" s="38"/>
+      <c r="D161" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E161" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F161" s="38"/>
+      <c r="G161" s="38"/>
+      <c r="H161" s="38"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="38" t="s">
+        <v>407</v>
+      </c>
+      <c r="B162" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="C162" s="38"/>
+      <c r="D162" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E162" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F162" s="38"/>
+      <c r="G162" s="38"/>
+      <c r="H162" s="38"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="38" t="s">
+        <v>409</v>
+      </c>
+      <c r="B163" s="38" t="s">
+        <v>410</v>
+      </c>
+      <c r="C163" s="38"/>
+      <c r="D163" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E163" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F163" s="38"/>
+      <c r="G163" s="38"/>
+      <c r="H163" s="38"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="38" t="s">
+        <v>411</v>
+      </c>
+      <c r="B164" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="C164" s="38"/>
+      <c r="D164" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E164" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F164" s="38"/>
+      <c r="G164" s="38"/>
+      <c r="H164" s="38"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="38" t="s">
+        <v>413</v>
+      </c>
+      <c r="B165" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="C165" s="38"/>
+      <c r="D165" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E165" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F165" s="38"/>
+      <c r="G165" s="38"/>
+      <c r="H165" s="38"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="B166" s="38" t="s">
+        <v>416</v>
+      </c>
+      <c r="C166" s="38"/>
+      <c r="D166" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E166" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F166" s="38"/>
+      <c r="G166" s="38"/>
+      <c r="H166" s="38"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="38" t="s">
+        <v>417</v>
+      </c>
+      <c r="B167" s="38" t="s">
+        <v>418</v>
+      </c>
+      <c r="C167" s="38"/>
+      <c r="D167" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E167" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F167" s="38"/>
+      <c r="G167" s="38"/>
+      <c r="H167" s="38"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="B168" s="38" t="s">
+        <v>420</v>
+      </c>
+      <c r="C168" s="38"/>
+      <c r="D168" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E168" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F168" s="38"/>
+      <c r="G168" s="38"/>
+      <c r="H168" s="38"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="B169" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="C169" s="38"/>
+      <c r="D169" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E169" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F169" s="38"/>
+      <c r="G169" s="38"/>
+      <c r="H169" s="38"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="38" t="s">
+        <v>423</v>
+      </c>
+      <c r="B170" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="C170" s="38"/>
+      <c r="D170" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E170" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F170" s="38"/>
+      <c r="G170" s="38"/>
+      <c r="H170" s="38"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="B171" s="38" t="s">
+        <v>426</v>
+      </c>
+      <c r="C171" s="38"/>
+      <c r="D171" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E171" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F171" s="38"/>
+      <c r="G171" s="38"/>
+      <c r="H171" s="38"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="B172" s="38" t="s">
+        <v>428</v>
+      </c>
+      <c r="C172" s="38"/>
+      <c r="D172" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E172" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F172" s="38"/>
+      <c r="G172" s="38"/>
+      <c r="H172" s="38"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="B173" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="C173" s="38"/>
+      <c r="D173" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E173" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F173" s="38"/>
+      <c r="G173" s="38"/>
+      <c r="H173" s="38"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="B174" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="C174" s="38"/>
+      <c r="D174" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E174" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F174" s="38"/>
+      <c r="G174" s="38"/>
+      <c r="H174" s="38"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="B175" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="C175" s="38"/>
+      <c r="D175" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E175" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F175" s="38"/>
+      <c r="G175" s="38"/>
+      <c r="H175" s="38"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="B176" s="38" t="s">
+        <v>436</v>
+      </c>
+      <c r="C176" s="38"/>
+      <c r="D176" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E176" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F176" s="38"/>
+      <c r="G176" s="38"/>
+      <c r="H176" s="38"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="38" t="s">
+        <v>437</v>
+      </c>
+      <c r="B177" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="C177" s="38"/>
+      <c r="D177" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E177" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F177" s="38"/>
+      <c r="G177" s="38"/>
+      <c r="H177" s="38"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="B178" s="38" t="s">
+        <v>440</v>
+      </c>
+      <c r="C178" s="38"/>
+      <c r="D178" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E178" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F178" s="38"/>
+      <c r="G178" s="38"/>
+      <c r="H178" s="38"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="B179" s="38" t="s">
+        <v>442</v>
+      </c>
+      <c r="C179" s="38"/>
+      <c r="D179" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E179" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F179" s="38"/>
+      <c r="G179" s="38"/>
+      <c r="H179" s="38"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="38" t="s">
+        <v>443</v>
+      </c>
+      <c r="B180" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="C180" s="38"/>
+      <c r="D180" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E180" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F180" s="38"/>
+      <c r="G180" s="38"/>
+      <c r="H180" s="38"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="B181" s="38" t="s">
+        <v>446</v>
+      </c>
+      <c r="C181" s="38"/>
+      <c r="D181" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E181" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F181" s="38"/>
+      <c r="G181" s="38"/>
+      <c r="H181" s="38"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="B182" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="C182" s="38"/>
+      <c r="D182" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E182" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F182" s="38"/>
+      <c r="G182" s="38"/>
+      <c r="H182" s="38"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="38" t="s">
+        <v>449</v>
+      </c>
+      <c r="B183" s="38" t="s">
+        <v>450</v>
+      </c>
+      <c r="C183" s="38"/>
+      <c r="D183" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E183" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F183" s="38"/>
+      <c r="G183" s="38"/>
+      <c r="H183" s="38"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="38" t="s">
+        <v>451</v>
+      </c>
+      <c r="B184" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="C184" s="38"/>
+      <c r="D184" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E184" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F184" s="38"/>
+      <c r="G184" s="38"/>
+      <c r="H184" s="38"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="B185" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="C185" s="38"/>
+      <c r="D185" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E185" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F185" s="38"/>
+      <c r="G185" s="38"/>
+      <c r="H185" s="38"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="38" t="s">
+        <v>455</v>
+      </c>
+      <c r="B186" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="C186" s="38"/>
+      <c r="D186" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E186" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F186" s="38"/>
+      <c r="G186" s="38"/>
+      <c r="H186" s="38"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="38" t="s">
+        <v>457</v>
+      </c>
+      <c r="B187" s="38" t="s">
+        <v>458</v>
+      </c>
+      <c r="C187" s="38"/>
+      <c r="D187" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E187" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F187" s="38"/>
+      <c r="G187" s="38"/>
+      <c r="H187" s="38"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="B188" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="C188" s="38"/>
+      <c r="D188" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E188" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F188" s="38"/>
+      <c r="G188" s="38"/>
+      <c r="H188" s="38"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="B189" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="C189" s="38"/>
+      <c r="D189" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E189" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F189" s="38"/>
+      <c r="G189" s="38"/>
+      <c r="H189" s="38"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="38" t="s">
+        <v>463</v>
+      </c>
+      <c r="B190" s="38" t="s">
+        <v>464</v>
+      </c>
+      <c r="C190" s="38"/>
+      <c r="D190" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E190" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F190" s="38"/>
+      <c r="G190" s="38"/>
+      <c r="H190" s="38"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="B191" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="C191" s="38"/>
+      <c r="D191" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E191" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F191" s="38"/>
+      <c r="G191" s="38"/>
+      <c r="H191" s="38"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="B192" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="C192" s="38"/>
+      <c r="D192" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E192" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F192" s="38"/>
+      <c r="G192" s="38"/>
+      <c r="H192" s="38"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="B193" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="C193" s="38"/>
+      <c r="D193" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E193" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F193" s="38"/>
+      <c r="G193" s="38"/>
+      <c r="H193" s="38"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="B194" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="C194" s="38"/>
+      <c r="D194" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E194" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F194" s="38"/>
+      <c r="G194" s="38"/>
+      <c r="H194" s="38"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="38" t="s">
+        <v>473</v>
+      </c>
+      <c r="B195" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="C195" s="38"/>
+      <c r="D195" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E195" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F195" s="38"/>
+      <c r="G195" s="38"/>
+      <c r="H195" s="38"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="38" t="s">
+        <v>475</v>
+      </c>
+      <c r="B196" s="38" t="s">
+        <v>476</v>
+      </c>
+      <c r="C196" s="38"/>
+      <c r="D196" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E196" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F196" s="38"/>
+      <c r="G196" s="38"/>
+      <c r="H196" s="38"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="B197" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="C197" s="38"/>
+      <c r="D197" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E197" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F197" s="38"/>
+      <c r="G197" s="38"/>
+      <c r="H197" s="38"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="B198" s="38" t="s">
+        <v>480</v>
+      </c>
+      <c r="C198" s="38"/>
+      <c r="D198" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E198" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F198" s="38"/>
+      <c r="G198" s="38"/>
+      <c r="H198" s="38"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="B199" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="C199" s="38"/>
+      <c r="D199" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E199" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F199" s="38"/>
+      <c r="G199" s="38"/>
+      <c r="H199" s="38"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="B200" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="C200" s="38"/>
+      <c r="D200" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E200" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F200" s="38"/>
+      <c r="G200" s="38"/>
+      <c r="H200" s="38"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="38" t="s">
+        <v>485</v>
+      </c>
+      <c r="B201" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="C201" s="38"/>
+      <c r="D201" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E201" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F201" s="38"/>
+      <c r="G201" s="38"/>
+      <c r="H201" s="38"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="B202" s="38" t="s">
+        <v>488</v>
+      </c>
+      <c r="C202" s="38"/>
+      <c r="D202" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E202" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F202" s="38"/>
+      <c r="G202" s="38"/>
+      <c r="H202" s="38"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="B203" s="38" t="s">
+        <v>490</v>
+      </c>
+      <c r="C203" s="38"/>
+      <c r="D203" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E203" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F203" s="38"/>
+      <c r="G203" s="38"/>
+      <c r="H203" s="38"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="38" t="s">
+        <v>491</v>
+      </c>
+      <c r="B204" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="C204" s="38"/>
+      <c r="D204" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E204" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F204" s="38"/>
+      <c r="G204" s="38"/>
+      <c r="H204" s="38"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="B205" s="38" t="s">
+        <v>494</v>
+      </c>
+      <c r="C205" s="38"/>
+      <c r="D205" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E205" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F205" s="38"/>
+      <c r="G205" s="38"/>
+      <c r="H205" s="38"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="B206" s="38" t="s">
+        <v>496</v>
+      </c>
+      <c r="C206" s="38"/>
+      <c r="D206" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E206" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F206" s="38"/>
+      <c r="G206" s="38"/>
+      <c r="H206" s="38"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="38" t="s">
+        <v>497</v>
+      </c>
+      <c r="B207" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="C207" s="38"/>
+      <c r="D207" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E207" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F207" s="38"/>
+      <c r="G207" s="38"/>
+      <c r="H207" s="38"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="38" t="s">
+        <v>499</v>
+      </c>
+      <c r="B208" s="38" t="s">
+        <v>500</v>
+      </c>
+      <c r="C208" s="38"/>
+      <c r="D208" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E208" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F208" s="38"/>
+      <c r="G208" s="38"/>
+      <c r="H208" s="38"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="B209" s="38" t="s">
+        <v>502</v>
+      </c>
+      <c r="C209" s="38"/>
+      <c r="D209" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E209" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F209" s="38"/>
+      <c r="G209" s="38"/>
+      <c r="H209" s="38"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="B210" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="C210" s="38"/>
+      <c r="D210" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E210" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F210" s="38"/>
+      <c r="G210" s="38"/>
+      <c r="H210" s="38"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="B211" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="C211" s="38"/>
+      <c r="D211" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E211" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F211" s="38"/>
+      <c r="G211" s="38"/>
+      <c r="H211" s="38"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="B212" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="C212" s="38"/>
+      <c r="D212" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E212" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F212" s="38"/>
+      <c r="G212" s="38"/>
+      <c r="H212" s="38"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="B213" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="C213" s="38"/>
+      <c r="D213" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E213" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F213" s="38"/>
+      <c r="G213" s="38"/>
+      <c r="H213" s="38"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="B214" s="38" t="s">
+        <v>512</v>
+      </c>
+      <c r="C214" s="38"/>
+      <c r="D214" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E214" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F214" s="38"/>
+      <c r="G214" s="38"/>
+      <c r="H214" s="38"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="B215" s="38" t="s">
+        <v>514</v>
+      </c>
+      <c r="C215" s="38"/>
+      <c r="D215" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E215" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F215" s="38"/>
+      <c r="G215" s="38"/>
+      <c r="H215" s="38"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="38" t="s">
+        <v>515</v>
+      </c>
+      <c r="B216" s="38" t="s">
+        <v>516</v>
+      </c>
+      <c r="C216" s="38"/>
+      <c r="D216" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E216" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F216" s="38"/>
+      <c r="G216" s="38"/>
+      <c r="H216" s="38"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="B217" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="C217" s="38"/>
+      <c r="D217" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E217" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F217" s="38"/>
+      <c r="G217" s="38"/>
+      <c r="H217" s="38"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="B218" s="38" t="s">
+        <v>520</v>
+      </c>
+      <c r="C218" s="38"/>
+      <c r="D218" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E218" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F218" s="38"/>
+      <c r="G218" s="38"/>
+      <c r="H218" s="38"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="38" t="s">
+        <v>521</v>
+      </c>
+      <c r="B219" s="38" t="s">
+        <v>522</v>
+      </c>
+      <c r="C219" s="38"/>
+      <c r="D219" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E219" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F219" s="38"/>
+      <c r="G219" s="38"/>
+      <c r="H219" s="38"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="38" t="s">
+        <v>523</v>
+      </c>
+      <c r="B220" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="C220" s="38"/>
+      <c r="D220" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E220" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F220" s="38"/>
+      <c r="G220" s="38"/>
+      <c r="H220" s="38"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="B221" s="38" t="s">
+        <v>526</v>
+      </c>
+      <c r="C221" s="38"/>
+      <c r="D221" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E221" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F221" s="38"/>
+      <c r="G221" s="38"/>
+      <c r="H221" s="38"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="B222" s="38" t="s">
+        <v>528</v>
+      </c>
+      <c r="C222" s="38"/>
+      <c r="D222" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E222" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F222" s="38"/>
+      <c r="G222" s="38"/>
+      <c r="H222" s="38"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="38" t="s">
+        <v>529</v>
+      </c>
+      <c r="B223" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="C223" s="38"/>
+      <c r="D223" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E223" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F223" s="38"/>
+      <c r="G223" s="38"/>
+      <c r="H223" s="38"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="38" t="s">
+        <v>531</v>
+      </c>
+      <c r="B224" s="38" t="s">
+        <v>532</v>
+      </c>
+      <c r="C224" s="38"/>
+      <c r="D224" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E224" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F224" s="38"/>
+      <c r="G224" s="38"/>
+      <c r="H224" s="38"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="38" t="s">
+        <v>533</v>
+      </c>
+      <c r="B225" s="38" t="s">
+        <v>534</v>
+      </c>
+      <c r="C225" s="38"/>
+      <c r="D225" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E225" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F225" s="38"/>
+      <c r="G225" s="38"/>
+      <c r="H225" s="38"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="38" t="s">
+        <v>535</v>
+      </c>
+      <c r="B226" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="C226" s="38"/>
+      <c r="D226" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E226" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F226" s="38"/>
+      <c r="G226" s="38"/>
+      <c r="H226" s="38"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A227" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="B227" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="C227" s="38"/>
+      <c r="D227" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E227" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F227" s="38"/>
+      <c r="G227" s="38"/>
+      <c r="H227" s="38"/>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A228" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="B228" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="C228" s="38"/>
+      <c r="D228" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E228" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F228" s="38"/>
+      <c r="G228" s="38"/>
+      <c r="H228" s="38"/>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="B229" s="38" t="s">
+        <v>542</v>
+      </c>
+      <c r="C229" s="38"/>
+      <c r="D229" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E229" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F229" s="38"/>
+      <c r="G229" s="38"/>
+      <c r="H229" s="38"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="B230" s="38" t="s">
+        <v>544</v>
+      </c>
+      <c r="C230" s="38"/>
+      <c r="D230" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E230" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F230" s="38"/>
+      <c r="G230" s="38"/>
+      <c r="H230" s="38"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" s="38" t="s">
+        <v>545</v>
+      </c>
+      <c r="B231" s="38" t="s">
+        <v>546</v>
+      </c>
+      <c r="C231" s="38"/>
+      <c r="D231" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E231" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F231" s="38"/>
+      <c r="G231" s="38"/>
+      <c r="H231" s="38"/>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="B232" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="C232" s="38"/>
+      <c r="D232" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E232" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F232" s="38"/>
+      <c r="G232" s="38"/>
+      <c r="H232" s="38"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="38" t="s">
+        <v>549</v>
+      </c>
+      <c r="B233" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="C233" s="38"/>
+      <c r="D233" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E233" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F233" s="38"/>
+      <c r="G233" s="38"/>
+      <c r="H233" s="38"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="B234" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="C234" s="38"/>
+      <c r="D234" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E234" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F234" s="38"/>
+      <c r="G234" s="38"/>
+      <c r="H234" s="38"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="38" t="s">
+        <v>553</v>
+      </c>
+      <c r="B235" s="38" t="s">
+        <v>554</v>
+      </c>
+      <c r="C235" s="38"/>
+      <c r="D235" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E235" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F235" s="38"/>
+      <c r="G235" s="38"/>
+      <c r="H235" s="38"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A236" s="38" t="s">
+        <v>555</v>
+      </c>
+      <c r="B236" s="38" t="s">
+        <v>556</v>
+      </c>
+      <c r="C236" s="38"/>
+      <c r="D236" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E236" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F236" s="38"/>
+      <c r="G236" s="38"/>
+      <c r="H236" s="38"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A237" s="38" t="s">
+        <v>557</v>
+      </c>
+      <c r="B237" s="38" t="s">
+        <v>558</v>
+      </c>
+      <c r="C237" s="38"/>
+      <c r="D237" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E237" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F237" s="38"/>
+      <c r="G237" s="38"/>
+      <c r="H237" s="38"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A238" s="38" t="s">
+        <v>559</v>
+      </c>
+      <c r="B238" s="38" t="s">
+        <v>560</v>
+      </c>
+      <c r="C238" s="38"/>
+      <c r="D238" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E238" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F238" s="38"/>
+      <c r="G238" s="38"/>
+      <c r="H238" s="38"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A239" s="38" t="s">
+        <v>561</v>
+      </c>
+      <c r="B239" s="38" t="s">
+        <v>562</v>
+      </c>
+      <c r="C239" s="38"/>
+      <c r="D239" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E239" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F239" s="38"/>
+      <c r="G239" s="38"/>
+      <c r="H239" s="38"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A240" s="38" t="s">
+        <v>563</v>
+      </c>
+      <c r="B240" s="38" t="s">
+        <v>564</v>
+      </c>
+      <c r="C240" s="38"/>
+      <c r="D240" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E240" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F240" s="38"/>
+      <c r="G240" s="38"/>
+      <c r="H240" s="38"/>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A241" s="38" t="s">
+        <v>565</v>
+      </c>
+      <c r="B241" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="C241" s="38"/>
+      <c r="D241" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E241" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F241" s="38"/>
+      <c r="G241" s="38"/>
+      <c r="H241" s="38"/>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="38" t="s">
+        <v>567</v>
+      </c>
+      <c r="B242" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="C242" s="38"/>
+      <c r="D242" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E242" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F242" s="38"/>
+      <c r="G242" s="38"/>
+      <c r="H242" s="38"/>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="38" t="s">
+        <v>569</v>
+      </c>
+      <c r="B243" s="38" t="s">
+        <v>570</v>
+      </c>
+      <c r="C243" s="38"/>
+      <c r="D243" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E243" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F243" s="38"/>
+      <c r="G243" s="38"/>
+      <c r="H243" s="38"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="38" t="s">
+        <v>571</v>
+      </c>
+      <c r="B244" s="38" t="s">
+        <v>572</v>
+      </c>
+      <c r="C244" s="38"/>
+      <c r="D244" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E244" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F244" s="38"/>
+      <c r="G244" s="38"/>
+      <c r="H244" s="38"/>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="38" t="s">
+        <v>573</v>
+      </c>
+      <c r="B245" s="38" t="s">
+        <v>574</v>
+      </c>
+      <c r="C245" s="38"/>
+      <c r="D245" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E245" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F245" s="38"/>
+      <c r="G245" s="38"/>
+      <c r="H245" s="38"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="B246" s="38" t="s">
+        <v>576</v>
+      </c>
+      <c r="C246" s="38"/>
+      <c r="D246" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E246" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F246" s="38"/>
+      <c r="G246" s="38"/>
+      <c r="H246" s="38"/>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247" s="38" t="s">
+        <v>577</v>
+      </c>
+      <c r="B247" s="38" t="s">
+        <v>578</v>
+      </c>
+      <c r="C247" s="38"/>
+      <c r="D247" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E247" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F247" s="38"/>
+      <c r="G247" s="38"/>
+      <c r="H247" s="38"/>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="38" t="s">
+        <v>579</v>
+      </c>
+      <c r="B248" s="38" t="s">
+        <v>580</v>
+      </c>
+      <c r="C248" s="38"/>
+      <c r="D248" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E248" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F248" s="38"/>
+      <c r="G248" s="38"/>
+      <c r="H248" s="38"/>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249" s="38" t="s">
+        <v>581</v>
+      </c>
+      <c r="B249" s="38" t="s">
+        <v>582</v>
+      </c>
+      <c r="C249" s="38"/>
+      <c r="D249" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E249" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F249" s="38"/>
+      <c r="G249" s="38"/>
+      <c r="H249" s="38"/>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="38" t="s">
+        <v>583</v>
+      </c>
+      <c r="B250" s="38" t="s">
+        <v>584</v>
+      </c>
+      <c r="C250" s="38"/>
+      <c r="D250" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E250" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F250" s="38"/>
+      <c r="G250" s="38"/>
+      <c r="H250" s="38"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="38" t="s">
+        <v>585</v>
+      </c>
+      <c r="B251" s="38" t="s">
+        <v>586</v>
+      </c>
+      <c r="C251" s="38"/>
+      <c r="D251" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E251" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F251" s="38"/>
+      <c r="G251" s="38"/>
+      <c r="H251" s="38"/>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="38" t="s">
+        <v>587</v>
+      </c>
+      <c r="B252" s="38" t="s">
+        <v>588</v>
+      </c>
+      <c r="C252" s="38"/>
+      <c r="D252" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E252" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F252" s="38"/>
+      <c r="G252" s="38"/>
+      <c r="H252" s="38"/>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="38" t="s">
+        <v>589</v>
+      </c>
+      <c r="B253" s="38" t="s">
+        <v>590</v>
+      </c>
+      <c r="C253" s="38"/>
+      <c r="D253" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E253" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F253" s="38"/>
+      <c r="G253" s="38"/>
+      <c r="H253" s="38"/>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254" s="38" t="s">
+        <v>591</v>
+      </c>
+      <c r="B254" s="38" t="s">
+        <v>592</v>
+      </c>
+      <c r="C254" s="38"/>
+      <c r="D254" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E254" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F254" s="38"/>
+      <c r="G254" s="38"/>
+      <c r="H254" s="38"/>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255" s="38" t="s">
+        <v>593</v>
+      </c>
+      <c r="B255" s="38" t="s">
+        <v>594</v>
+      </c>
+      <c r="C255" s="38"/>
+      <c r="D255" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E255" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F255" s="38"/>
+      <c r="G255" s="38"/>
+      <c r="H255" s="38"/>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="38" t="s">
+        <v>595</v>
+      </c>
+      <c r="B256" s="38" t="s">
+        <v>596</v>
+      </c>
+      <c r="C256" s="38"/>
+      <c r="D256" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E256" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F256" s="38"/>
+      <c r="G256" s="38"/>
+      <c r="H256" s="38"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="B257" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="C257" s="38"/>
+      <c r="D257" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E257" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F257" s="38"/>
+      <c r="G257" s="38"/>
+      <c r="H257" s="38"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="38" t="s">
+        <v>599</v>
+      </c>
+      <c r="B258" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="C258" s="38"/>
+      <c r="D258" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E258" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F258" s="38"/>
+      <c r="G258" s="38"/>
+      <c r="H258" s="38"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="38" t="s">
+        <v>601</v>
+      </c>
+      <c r="B259" s="38" t="s">
+        <v>602</v>
+      </c>
+      <c r="C259" s="38"/>
+      <c r="D259" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E259" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F259" s="38"/>
+      <c r="G259" s="38"/>
+      <c r="H259" s="38"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260" s="38" t="s">
+        <v>603</v>
+      </c>
+      <c r="B260" s="38" t="s">
+        <v>604</v>
+      </c>
+      <c r="C260" s="38"/>
+      <c r="D260" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E260" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F260" s="38"/>
+      <c r="G260" s="38"/>
+      <c r="H260" s="38"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="38" t="s">
+        <v>605</v>
+      </c>
+      <c r="B261" s="38" t="s">
+        <v>606</v>
+      </c>
+      <c r="C261" s="38"/>
+      <c r="D261" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E261" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F261" s="38"/>
+      <c r="G261" s="38"/>
+      <c r="H261" s="38"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="B262" s="38" t="s">
+        <v>608</v>
+      </c>
+      <c r="C262" s="38"/>
+      <c r="D262" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E262" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F262" s="38"/>
+      <c r="G262" s="38"/>
+      <c r="H262" s="38"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="38" t="s">
+        <v>609</v>
+      </c>
+      <c r="B263" s="38" t="s">
+        <v>610</v>
+      </c>
+      <c r="C263" s="38"/>
+      <c r="D263" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E263" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F263" s="38"/>
+      <c r="G263" s="38"/>
+      <c r="H263" s="38"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H263"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="59" style="36" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="36" customWidth="1"/>
+    <col min="8" max="9" width="40.7109375" style="23" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="23" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="14" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="30">
+        <v>1541100001</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="30">
+        <v>1381000001</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="30">
+        <v>1541100001</v>
+      </c>
+      <c r="G4" s="26"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="34"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="26">
+        <v>1562000002</v>
+      </c>
+      <c r="G12" s="26"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="26">
+        <v>6211000001</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="26">
+        <v>9999999999</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H14"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/addons/custom/forlife_stock/static/src/xlsx/template_ycnk.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/template_ycnk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FORLIFE\TAI LIEU DU AN\ERP\Template import_Odoo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aht\Desktop\Forlife\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -206,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -278,7 +278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -302,7 +302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -326,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -350,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +379,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="618">
   <si>
     <t>Nhập khác</t>
   </si>
@@ -2329,9 +2329,6 @@
   </si>
   <si>
     <t>Địa điểm xuât NPL</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
   </si>
 </sst>
 </file>
@@ -2949,28 +2946,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
         <v>7</v>
       </c>
@@ -2998,38 +2995,35 @@
       <c r="I1" s="42" t="s">
         <v>616</v>
       </c>
-      <c r="J1" s="42" t="s">
-        <v>618</v>
-      </c>
-      <c r="K1" s="43" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="K1" s="39" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="44">
         <v>44655</v>
       </c>
@@ -3043,36 +3037,35 @@
       <c r="G2" s="45"/>
       <c r="H2" s="45"/>
       <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="40">
+      <c r="K2" s="40">
         <v>45163</v>
       </c>
-      <c r="M2" s="2">
+      <c r="L2" s="2">
         <v>10</v>
       </c>
+      <c r="M2" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="4">
+      <c r="O2" s="4">
         <v>1075</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="P2" s="3">
         <v>1405000161</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="3">
+      <c r="R2" s="3">
         <v>1511020000</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3082,36 +3075,35 @@
       <c r="G3" s="47"/>
       <c r="H3" s="47"/>
       <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="40">
+      <c r="K3" s="40">
         <v>45164</v>
       </c>
-      <c r="M3" s="2">
+      <c r="L3" s="2">
         <v>15</v>
       </c>
+      <c r="M3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="4">
+      <c r="O3" s="4">
         <v>1076</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="P3" s="3">
         <v>1405000161</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="3">
+      <c r="R3" s="3">
         <v>1511020000</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="44">
         <v>44655</v>
       </c>
@@ -3125,36 +3117,35 @@
       <c r="G4" s="45"/>
       <c r="H4" s="45"/>
       <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="40">
+      <c r="K4" s="40">
         <v>45165</v>
       </c>
-      <c r="M4" s="2">
+      <c r="L4" s="2">
         <v>20</v>
       </c>
+      <c r="M4" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P4" s="4">
+      <c r="O4" s="4">
         <v>1077</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="P4" s="3">
         <v>1405000161</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="3">
+      <c r="R4" s="3">
         <v>1511020000</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
@@ -3164,39 +3155,38 @@
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="40">
+      <c r="K5" s="40">
         <v>45166</v>
       </c>
-      <c r="M5" s="2">
+      <c r="L5" s="2">
         <v>25</v>
       </c>
+      <c r="M5" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="4">
+      <c r="O5" s="4">
         <v>1078</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="P5" s="3">
         <v>1405000161</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="3">
+      <c r="R5" s="3">
         <v>1511020000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:I2">
       <formula1>"Nhập khác, Xuất khác"</formula1>
     </dataValidation>
   </dataValidations>
